--- a/Excel/bazar.xlsb.xlsx
+++ b/Excel/bazar.xlsb.xlsx
@@ -1,29 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Portfolio\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalli\Portfolio\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:10000001_{3B8DAE1A-2BC3-49AB-95BD-A3C593093F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856782BA-E736-4D7C-B7BB-11FDB3031F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bazar" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="škola" sheetId="2" r:id="rId3"/>
+    <sheet name="škola" sheetId="2" r:id="rId2"/>
+    <sheet name="Jobs" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Jobs!$A$2:$A$7</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Jobs!$B$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Jobs!$F$2:$F$7</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Jobs!$G$1</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Jobs!$G$2:$G$7</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Jobs!$B$2:$B$7</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Jobs!$C$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Jobs!$C$2:$C$7</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Jobs!$D$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Jobs!$D$2:$D$7</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Jobs!$E$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Jobs!$E$2:$E$7</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Jobs!$F$1</definedName>
     <definedName name="bazar">bazar!$A$1:$I$61</definedName>
     <definedName name="Slicer_Column1">#N/A</definedName>
     <definedName name="Slicer_MISTO_NAR">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -72,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3437" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3450" uniqueCount="1142">
   <si>
     <t>typ</t>
   </si>
@@ -3465,13 +3477,46 @@
   </si>
   <si>
     <t>MIN km.</t>
+  </si>
+  <si>
+    <t>Job Titles</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>Data Analyst</t>
+  </si>
+  <si>
+    <t>Senior Data Analyst</t>
+  </si>
+  <si>
+    <t>Data Scientist</t>
+  </si>
+  <si>
+    <t>Senior Data Scientist</t>
+  </si>
+  <si>
+    <t>Data Engineer</t>
+  </si>
+  <si>
+    <t>Senior Data Engineer</t>
+  </si>
+  <si>
+    <t>base</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -3495,6 +3540,10 @@
       <color theme="0"/>
       <name val="MS Sans Serif"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="MS Sans Serif"/>
     </font>
   </fonts>
   <fills count="9">
@@ -3547,7 +3596,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -3596,12 +3645,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3642,6 +3704,10 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4530,6 +4596,1193 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.429958854612669E-2"/>
+          <c:y val="0.14902190923317687"/>
+          <c:w val="0.90254391278013324"/>
+          <c:h val="0.63165717841607827"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Jobs!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Jobs!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Data Analyst</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Senior Data Analyst</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Data Scientist</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Senior Data Scientist</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Data Engineer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Senior Data Engineer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Jobs!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>869</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>145</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5555-4B61-AECB-8E1978EAF568}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Jobs!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Feb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Jobs!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Data Analyst</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Senior Data Analyst</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Data Scientist</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Senior Data Scientist</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Data Engineer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Senior Data Engineer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Jobs!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>691</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>175</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5555-4B61-AECB-8E1978EAF568}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Jobs!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Jobs!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Data Analyst</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Senior Data Analyst</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Data Scientist</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Senior Data Scientist</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Data Engineer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Senior Data Engineer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Jobs!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>776</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>717</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>727</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5555-4B61-AECB-8E1978EAF568}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Jobs!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Apr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:tint val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Jobs!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Data Analyst</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Senior Data Analyst</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Data Scientist</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Senior Data Scientist</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Data Engineer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Senior Data Engineer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Jobs!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>753</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>653</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>167</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5555-4B61-AECB-8E1978EAF568}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1220686912"/>
+        <c:axId val="1220696512"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Jobs!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SUM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-5555-4B61-AECB-8E1978EAF568}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-5555-4B61-AECB-8E1978EAF568}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-5555-4B61-AECB-8E1978EAF568}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-5555-4B61-AECB-8E1978EAF568}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-5555-4B61-AECB-8E1978EAF568}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-5555-4B61-AECB-8E1978EAF568}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Jobs!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Data Analyst</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Senior Data Analyst</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Data Scientist</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Senior Data Scientist</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Data Engineer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Senior Data Engineer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Jobs!$F$2:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3202</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2859</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>764</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2354</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>683</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5555-4B61-AECB-8E1978EAF568}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Jobs!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>base</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Jobs!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Data Analyst</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Senior Data Analyst</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Data Scientist</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Senior Data Scientist</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Data Engineer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Senior Data Engineer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Jobs!$G$2:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5555-4B61-AECB-8E1978EAF568}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:upDownBars>
+          <c:gapWidth val="45"/>
+          <c:upBars>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="15000"/>
+                    <a:lumOff val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:upBars>
+          <c:downBars>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="tx2">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="tx2">
+                      <a:lumMod val="20000"/>
+                      <a:lumOff val="80000"/>
+                      <a:alpha val="0"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="12700" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="41000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:downBars>
+        </c:upDownBars>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1220686912"/>
+        <c:axId val="1220696512"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1220686912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1220696512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1220696512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1220686912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4607,6 +5860,12 @@
     <a:lumMod val="50000"/>
     <a:lumOff val="50000"/>
   </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
 </cs:colorStyle>
 </file>
 
@@ -5614,6 +6873,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5847,6 +7609,47 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{419693FB-7A1F-0732-74BB-DC524CCEC40F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8728,24 +10531,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21EF8B3-5155-4B6F-8BAC-BFD210A463E9}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06927405-8015-4B6E-8AE5-A0743618384D}">
   <dimension ref="A1:J532"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -26863,4 +28652,234 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FAEF84-FE18-44DC-9C0D-A3D84067EC00}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="8.88671875" style="21"/>
+    <col min="14" max="14" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+    </row>
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B2" s="18">
+        <v>982</v>
+      </c>
+      <c r="C2" s="18">
+        <v>691</v>
+      </c>
+      <c r="D2" s="19">
+        <v>776</v>
+      </c>
+      <c r="E2" s="18">
+        <v>753</v>
+      </c>
+      <c r="F2" s="18">
+        <f>SUM(B2:E2)</f>
+        <v>3202</v>
+      </c>
+      <c r="G2" s="18">
+        <v>0</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+    </row>
+    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B3" s="18">
+        <v>191</v>
+      </c>
+      <c r="C3" s="18">
+        <v>120</v>
+      </c>
+      <c r="D3" s="19">
+        <v>200</v>
+      </c>
+      <c r="E3" s="18">
+        <v>139</v>
+      </c>
+      <c r="F3" s="18">
+        <f t="shared" ref="F3:F7" si="0">SUM(B3:E3)</f>
+        <v>650</v>
+      </c>
+      <c r="G3" s="18">
+        <v>0</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+    </row>
+    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B4" s="18">
+        <v>869</v>
+      </c>
+      <c r="C4" s="18">
+        <v>620</v>
+      </c>
+      <c r="D4" s="19">
+        <v>717</v>
+      </c>
+      <c r="E4" s="18">
+        <v>653</v>
+      </c>
+      <c r="F4" s="18">
+        <f t="shared" si="0"/>
+        <v>2859</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+    </row>
+    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B5" s="18">
+        <v>236</v>
+      </c>
+      <c r="C5" s="18">
+        <v>165</v>
+      </c>
+      <c r="D5" s="19">
+        <v>217</v>
+      </c>
+      <c r="E5" s="18">
+        <v>146</v>
+      </c>
+      <c r="F5" s="18">
+        <f t="shared" si="0"/>
+        <v>764</v>
+      </c>
+      <c r="G5" s="18">
+        <v>0</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+    </row>
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="18" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B6" s="18">
+        <v>522</v>
+      </c>
+      <c r="C6" s="18">
+        <v>590</v>
+      </c>
+      <c r="D6" s="19">
+        <v>727</v>
+      </c>
+      <c r="E6" s="18">
+        <v>515</v>
+      </c>
+      <c r="F6" s="18">
+        <f t="shared" si="0"/>
+        <v>2354</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+    </row>
+    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="18" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B7" s="18">
+        <v>145</v>
+      </c>
+      <c r="C7" s="18">
+        <v>175</v>
+      </c>
+      <c r="D7" s="19">
+        <v>196</v>
+      </c>
+      <c r="E7" s="18">
+        <v>167</v>
+      </c>
+      <c r="F7" s="18">
+        <f t="shared" si="0"/>
+        <v>683</v>
+      </c>
+      <c r="G7" s="18">
+        <v>0</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>